--- a/com.RainbowSuperStore/src/test/resources/File.xlsx
+++ b/com.RainbowSuperStore/src/test/resources/File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b181cad8578410d2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\git\com.RainbowSuperStore\com.RainbowSuperStore\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048A7591C53865BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1518891E-91F2-4172-868C-64291730C3F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE9BE1-788B-407E-B6BD-CD31C05B33F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>ExpenseCtegory</t>
-  </si>
-  <si>
     <t>FrenchFries</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>ManageExpense</t>
+  </si>
+  <si>
+    <t>ExpenseCategory</t>
   </si>
 </sst>
 </file>
@@ -89,10 +89,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -378,7 +378,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,36 +387,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
         <v>45100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>1000</v>
@@ -424,10 +424,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
